--- a/data/admin.xlsx
+++ b/data/admin.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Admin ID</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ADM1763100984771</t>
+    <t>ADM001</t>
   </si>
   <si>
     <t>ALPHA</t>
@@ -41,7 +41,22 @@
     <t>SUPERUSER</t>
   </si>
   <si>
-    <t>alpha@rail.com</t>
+    <t>admin@railway.com</t>
+  </si>
+  <si>
+    <t>ADM002</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>PASS123</t>
+  </si>
+  <si>
+    <t>STATION_MASTER</t>
+  </si>
+  <si>
+    <t>manager@railway.com</t>
   </si>
 </sst>
 </file>
@@ -86,17 +101,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.97265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.17578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.29296875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.36328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.59765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="15.69140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -133,6 +148,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
